--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,69; 6,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>1,12; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>2,34; 11,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>2,83; 12,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>6,54; 18,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,3; 7,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>1,53; 5,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>2,18; 7,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>4,02; 11,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,24; 6,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,2; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,58; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,85; 3,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,52; 7,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,43; 8,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,97; 13,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,71; 10,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,68; 9,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,76; 6,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,17; 8,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,64; 6,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,15; 7,69</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,45; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,48; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,99; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,53; 3,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,01; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,55; 10,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,8; 9,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,27; 7,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,54; 5,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,86; 7,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,65; 5,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>3,74; 5,43</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,71; 2,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,08; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,23; 3,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,32; 4,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,14; 7,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,44; 9,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,98; 7,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,14; 9,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,69; 4,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,76; 5,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,82; 4,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,47; 7,05</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,08; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,75; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,11; 4,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,61; 4,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,56; 8,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,94; 10,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,79; 9,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,72; 10,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,74; 5,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,34; 7,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,3; 6,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,6; 7,58</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,52; 3,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,86; 4,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,64; 7,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,29; 8,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,56; 8,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,86; 4,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,21; 6,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,25; 5,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,12; 6,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>1,95; 4,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,48</t>
+          <t>1,56; 3,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>1,04; 3,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,36</t>
+          <t>3,39; 6,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,29</t>
+          <t>4,25; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 12,77</t>
+          <t>7,56; 11,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 18,32</t>
+          <t>6,53; 10,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,61</t>
+          <t>5,43; 8,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,83</t>
+          <t>3,51; 5,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,86</t>
+          <t>4,92; 7,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,18</t>
+          <t>4,01; 6,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>4,71; 6,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,06</t>
+          <t>1,45; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,33</t>
+          <t>2,48; 5,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,04</t>
+          <t>0,99; 2,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,46</t>
+          <t>0,94; 3,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,52</t>
+          <t>5,01; 8,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 13,18</t>
+          <t>6,55; 10,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,66</t>
+          <t>5,8; 9,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,04</t>
+          <t>5,28; 7,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,28</t>
+          <t>3,54; 5,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,04</t>
+          <t>4,86; 7,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,13</t>
+          <t>3,65; 5,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,69</t>
+          <t>2,78; 4,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,41</t>
+          <t>0,71; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,01</t>
+          <t>1,08; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,61</t>
+          <t>1,23; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,52</t>
+          <t>2,27; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>4,14; 7,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,06</t>
+          <t>5,44; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,1</t>
+          <t>3,98; 7,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,85</t>
+          <t>3,37; 9,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,42</t>
+          <t>2,69; 4,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,04</t>
+          <t>3,76; 5,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,58</t>
+          <t>2,82; 4,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,43</t>
+          <t>3,48; 6,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,57</t>
+          <t>1,08; 2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,61</t>
+          <t>2,75; 5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,44</t>
+          <t>2,11; 4,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,92</t>
+          <t>2,58; 4,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,55</t>
+          <t>5,56; 8,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,24</t>
+          <t>6,94; 10,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,39</t>
+          <t>5,79; 9,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,88</t>
+          <t>6,7; 10,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,71</t>
+          <t>3,74; 5,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,88</t>
+          <t>5,34; 7,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,89</t>
+          <t>4,3; 6,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,05</t>
+          <t>5,23; 7,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,87</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,57</t>
+          <t>2,52; 3,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,49</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,84</t>
+          <t>2,44; 3,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,75</t>
+          <t>5,64; 7,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,49</t>
+          <t>7,41; 9,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,13</t>
+          <t>6,29; 8,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,52</t>
+          <t>5,75; 8,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,76</t>
+          <t>3,86; 4,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,77</t>
+          <t>5,21; 6,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,4</t>
+          <t>4,25; 5,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,58</t>
+          <t>4,55; 5,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 2,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 3,91</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 4,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,64; 7,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,41; 9,44</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 8,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 8,36</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 4,86</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 6,38</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 5,28</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 6,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,48</t>
+          <t>2,1; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,92</t>
+          <t>1,55; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,23</t>
+          <t>0,97; 3,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,8</t>
+          <t>3,41; 6,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,73</t>
+          <t>4,59; 8,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,93</t>
+          <t>7,62; 12,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,88</t>
+          <t>6,52; 10,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,16</t>
+          <t>5,56; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,67</t>
+          <t>3,61; 5,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,5</t>
+          <t>4,93; 7,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,48</t>
+          <t>4,06; 6,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,99</t>
+          <t>4,84; 6,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,41</t>
+          <t>1,46; 3,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,01</t>
+          <t>2,5; 5,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,61</t>
+          <t>1,0; 2,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,14</t>
+          <t>1,05; 3,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>5,13; 8,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,06</t>
+          <t>6,39; 10,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,1</t>
+          <t>5,81; 9,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,84</t>
+          <t>5,39; 7,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,42</t>
+          <t>3,55; 5,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,04</t>
+          <t>4,89; 7,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,58</t>
+          <t>3,7; 5,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,99</t>
+          <t>2,54; 4,92</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1005,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,57</t>
+          <t>0,73; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,61</t>
+          <t>1,1; 3,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,44</t>
+          <t>1,22; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,84</t>
+          <t>2,09; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,55</t>
+          <t>3,98; 7,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,24</t>
+          <t>5,2; 9,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,39</t>
+          <t>3,93; 7,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,19</t>
+          <t>3,23; 9,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,71</t>
+          <t>2,74; 4,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,88</t>
+          <t>3,6; 5,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,41</t>
+          <t>3,47; 6,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,87</t>
+          <t>1,09; 2,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,57</t>
+          <t>2,76; 5,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,49</t>
+          <t>2,09; 4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,78</t>
+          <t>2,53; 4,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,75</t>
+          <t>5,7; 8,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,49</t>
+          <t>6,87; 10,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,13</t>
+          <t>5,69; 9,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,0</t>
+          <t>6,74; 10,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,76</t>
+          <t>3,73; 5,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,77</t>
+          <t>5,31; 7,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,4</t>
+          <t>4,24; 6,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,27</t>
+          <t>5,34; 7,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,68</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,91</t>
+          <t>2,53; 3,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,77</t>
+          <t>1,7; 2,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,91</t>
+          <t>2,45; 3,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,33</t>
+          <t>5,63; 7,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,44</t>
+          <t>7,41; 9,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,08</t>
+          <t>6,29; 8,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,0</t>
+          <t>5,76; 7,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,86</t>
+          <t>3,84; 4,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,38</t>
+          <t>5,28; 6,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 5,28</t>
+          <t>4,19; 5,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 5,83</t>
+          <t>4,53; 5,82</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21246</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12538</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30619</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41948</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>68032</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56821</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45355</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>63194</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85954</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69359</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>75974</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14536; 33552</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10881; 27848</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6529; 20711</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21663; 42884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31620; 55216</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52988; 84340</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43872; 72340</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37525; 55772</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49927; 78707</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68797; 105588</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54761; 88079</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63473; 91388</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22334</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17593</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62942</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83336</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75956</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62666</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>85276</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119565</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>93549</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87287</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14025; 35112</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25494; 51440</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10234; 27066</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12566; 38192</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49714; 80015</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65639; 103526</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60575; 94242</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51646; 73896</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68562; 106320</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>100058; 143702</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76501; 114119</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54579; 105795</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9685</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15601</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23382</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39298</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55661</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42692</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61237</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48983</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71879</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58293</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84619</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17357</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8274; 29332</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9265; 26416</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14708; 33934</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27205; 52687</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40403; 70774</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30834; 57412</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30140; 84294</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37290; 63654</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>55107; 90978</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>43634; 75595</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56754; 105750</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16835</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37464</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33134</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73993</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>89575</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>76223</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92939</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>90829</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>127040</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>104698</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>126073</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10260; 26057</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26057; 54281</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19593; 40806</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23461; 44176</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59187; 93091</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>71998; 108100</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59443; 94412</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73527; 110669</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73958; 110903</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>105854; 150864</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83928; 125948</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107701; 146366</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>107832</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>111757</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>218181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>296605</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>251691</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>262196</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>288281</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>404437</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>325898</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>373953</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55089; 85755</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>86572; 133555</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>57849; 91412</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>84745; 135474</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>190280; 246748</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>262752; 328478</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>223043; 283410</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>210501; 291456</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>255230; 320257</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>367529; 448340</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>290464; 362774</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>322144; 414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>